--- a/docker-deploy/hw2_requirements.xlsx
+++ b/docker-deploy/hw2_requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master of ECE\2021 Spring\ECE 568\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C72EF45-EE85-4D69-9AAA-73BB6A0CCBEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C90E4E6-7C0F-457F-8670-01891C16367D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3672" yWindow="1872" windowWidth="25656" windowHeight="13752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1308" yWindow="1476" windowWidth="25656" windowHeight="13752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
   </si>
   <si>
     <t>yes
-The default cache size is 10. If the cache is full, the least used cache will be deleted in order to put the new cache in. If the cache we find is expired, we will erase it from cache and then replaced it with new message it the new one is available.We also use Etag, last-modified flag to check if the cache is usable.</t>
+The default cache size is 50. If the cache is full, the least used cache will be deleted in order to put the new cache in. If the cache we find is expired, we will erase it from cache and then replaced it with new message it the new one is available.We also use Etag, last-modified flag to check if the cache is usable.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
